--- a/code/notebooks/phase2results_new/feature_impotance_biotype.xlsx
+++ b/code/notebooks/phase2results_new/feature_impotance_biotype.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01192559644755405</v>
+        <v>0.0123427840294016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01144740678365708</v>
+        <v>0.0117642992181168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00978262006174856</v>
+        <v>0.01009097741047778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003196527369470441</v>
+        <v>0.003277813621084494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003235728416237474</v>
+        <v>0.00332541190450268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003117554567744266</v>
+        <v>0.003001060179009472</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01188975010699654</v>
+        <v>0.01230768111352318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01482886130530045</v>
+        <v>0.01475144022281516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01205667652104068</v>
+        <v>0.01223263369809105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00313536606804447</v>
+        <v>0.003411679522448561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004772730785953527</v>
+        <v>0.004458826312542326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003864965077909021</v>
+        <v>0.003955883284830793</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01260959447011865</v>
+        <v>0.01271225478137968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01113735565183518</v>
+        <v>0.01135110194191698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01030380451826762</v>
+        <v>0.01043739544836691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003322304108108355</v>
+        <v>0.003257481315239527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002950458550449668</v>
+        <v>0.003179234255175051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002931511742867619</v>
+        <v>0.002993354275728347</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01313651525418268</v>
+        <v>0.01279586141322243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01045834870575425</v>
+        <v>0.01053277844837562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008447925215585354</v>
+        <v>0.008349110951076089</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003457814243520261</v>
+        <v>0.003344674988771031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002961016666750681</v>
+        <v>0.002910685504067835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002391709807774079</v>
+        <v>0.002464395966428879</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01228736150420015</v>
+        <v>0.01244984497777697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0106318462619775</v>
+        <v>0.01073325394042426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008857795278120232</v>
+        <v>0.00898272967992487</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00324975460392754</v>
+        <v>0.003589767441837006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002853003561761089</v>
+        <v>0.003069764084473577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002610383971543127</v>
+        <v>0.002475185968654895</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01225457656581728</v>
+        <v>0.01263362553717839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01127154600170738</v>
+        <v>0.01145647116673163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009540748590536201</v>
+        <v>0.009488226522935773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003207819480771188</v>
+        <v>0.003290790748021236</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00319134784431736</v>
+        <v>0.003135630675136135</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002710977056147917</v>
+        <v>0.002672032752599165</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01126581171603153</v>
+        <v>0.01166858426846033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01010263007681964</v>
+        <v>0.01011929203075683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007921139726327464</v>
+        <v>0.007810891696078052</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003075769321135728</v>
+        <v>0.003130505453109057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002981468905427628</v>
+        <v>0.002899629029935387</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002402148641760332</v>
+        <v>0.002311158928024571</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01327229360172536</v>
+        <v>0.0136480608710661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01208403248284384</v>
+        <v>0.01194674077105356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0102087468771697</v>
+        <v>0.01035965633685648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003522779163175818</v>
+        <v>0.003352719647282458</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003479112076591127</v>
+        <v>0.00339490992445321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002818705086133185</v>
+        <v>0.002905134551982476</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01167750771251421</v>
+        <v>0.01182876545073582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01006897893758128</v>
+        <v>0.01043656759694583</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00880757708355592</v>
+        <v>0.008788312634979095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003188997462767113</v>
+        <v>0.003125150809004696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002718869735783401</v>
+        <v>0.002700644672056211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002492146494026196</v>
+        <v>0.002516631920787016</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01132261279917691</v>
+        <v>0.01120898776906486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01032335197201368</v>
+        <v>0.01044137539094312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008534249713807455</v>
+        <v>0.008498243602768563</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002992700661978026</v>
+        <v>0.003050890757790986</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002850731583976977</v>
+        <v>0.003092957688624838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002427967812375637</v>
+        <v>0.002493795819960346</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01231765719407336</v>
+        <v>0.01235983947367601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01021755640103164</v>
+        <v>0.01037819005325293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00916331284886983</v>
+        <v>0.009331443075993016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003401198631317769</v>
+        <v>0.003297600654111726</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002757178190367759</v>
+        <v>0.002785699200562798</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002621063042282679</v>
+        <v>0.002573685884997427</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01530622009382196</v>
+        <v>0.01528922436127875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01540423818285059</v>
+        <v>0.01555059611094442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01705469838492344</v>
+        <v>0.01662967335102796</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003849442932030477</v>
+        <v>0.003627093327945638</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004623258249464938</v>
+        <v>0.004348683795365482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006178055629986252</v>
+        <v>0.005710263911576846</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01125993155367403</v>
+        <v>0.01157859239303369</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01158466689841159</v>
+        <v>0.01207969812210713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01051737045933919</v>
+        <v>0.01064336174251782</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003044351083746247</v>
+        <v>0.003317357528471731</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003319364915206519</v>
+        <v>0.003575298205391243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003207959600770092</v>
+        <v>0.003295212355209933</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01064890489221242</v>
+        <v>0.01079945190248575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01406160381254101</v>
+        <v>0.01441510425146039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009159399460260795</v>
+        <v>0.009263456777624848</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003279048868414383</v>
+        <v>0.003189051356759152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004468723245548333</v>
+        <v>0.004751044518261061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002862816852169449</v>
+        <v>0.00277021124960969</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01183332875891538</v>
+        <v>0.01196277668216189</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0101037582315851</v>
+        <v>0.01048116913617536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009038223671748771</v>
+        <v>0.009275252374835759</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003198086678726532</v>
+        <v>0.003137844882434874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002709950035842609</v>
+        <v>0.00294716420454518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002508217306500959</v>
+        <v>0.002768181824337392</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01223991826254417</v>
+        <v>0.01216184313587227</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01165294719583186</v>
+        <v>0.01174462294397772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009033259939900158</v>
+        <v>0.009073756497198653</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003089037941616099</v>
+        <v>0.003136821581372836</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003210974163109944</v>
+        <v>0.003303080350661857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002549793748607623</v>
+        <v>0.002523948583987026</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01258814316627373</v>
+        <v>0.01321093534684162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009827432122143277</v>
+        <v>0.009900764620837764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009679752981668299</v>
+        <v>0.0096558306521119</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003312096593140469</v>
+        <v>0.003605444206214713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002838353022582221</v>
+        <v>0.002836393912790117</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002716138881790185</v>
+        <v>0.002693444711661535</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01275970722924274</v>
+        <v>0.01285938236606404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0110091075991971</v>
+        <v>0.01121399592454976</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008262332267579661</v>
+        <v>0.008487943359838898</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003383673020848925</v>
+        <v>0.003492320819365421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00305083656856035</v>
+        <v>0.002926951169941549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002412695536977561</v>
+        <v>0.002433730779208515</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01012957668020694</v>
+        <v>0.01043027274526368</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01015690531424084</v>
+        <v>0.01003974039929445</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006331268470827617</v>
+        <v>0.006361418149664622</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002927884593198446</v>
+        <v>0.00313968739827919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003570929643916024</v>
+        <v>0.00307840681079115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002191796370263767</v>
+        <v>0.0021812258210822</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01253580093369639</v>
+        <v>0.01294745645306029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01104872009368796</v>
+        <v>0.01154178394917301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009152618943037731</v>
+        <v>0.009279835128170051</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003400990243080472</v>
+        <v>0.003178980222734622</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002997866127077158</v>
+        <v>0.003325414378301359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002614219556780296</v>
+        <v>0.002510659273987068</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01140337857222179</v>
+        <v>0.01138923098404271</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008838077393338879</v>
+        <v>0.009053949037584899</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00931586415777317</v>
+        <v>0.00956755365509933</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00313199816935332</v>
+        <v>0.002971011220955382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002711652214532164</v>
+        <v>0.002891018917566638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002841773104618358</v>
+        <v>0.002814302236496186</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009345319469177835</v>
+        <v>0.009530818095726852</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00755749649768783</v>
+        <v>0.007643018952599986</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005537092999088424</v>
+        <v>0.005457402845525745</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002923280246726632</v>
+        <v>0.002661251773979027</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002489165043117904</v>
+        <v>0.002449391174264554</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001914784261831645</v>
+        <v>0.001900231042890448</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0120157440098187</v>
+        <v>0.01211160983701468</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01337282719057179</v>
+        <v>0.01333416321475078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01161398794353634</v>
+        <v>0.01169504987821735</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003197771462620859</v>
+        <v>0.003053689915270201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003573047452251771</v>
+        <v>0.003880675008294656</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003201080332968718</v>
+        <v>0.00343440078606352</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01296141781562249</v>
+        <v>0.01310350210791748</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01062843497698306</v>
+        <v>0.01081531757398213</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008928426839017872</v>
+        <v>0.009241540673467963</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003401004307754527</v>
+        <v>0.003515469964632409</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002833636589449933</v>
+        <v>0.002852684515628037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002574247187473574</v>
+        <v>0.002526649106641688</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0114469081392638</v>
+        <v>0.01148924383733409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0115137125209682</v>
+        <v>0.01151602295891728</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008529907309356741</v>
+        <v>0.008705070342900073</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00316760534547826</v>
+        <v>0.003095834308274376</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003311329902827558</v>
+        <v>0.00321742907528839</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002933428946958724</v>
+        <v>0.0027963336425519</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0130564274868565</v>
+        <v>0.01339106964530169</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01083471531187573</v>
+        <v>0.01110609665768467</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009846836332481877</v>
+        <v>0.009788533383239826</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003423414257217447</v>
+        <v>0.003688834730029243</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002952969634451681</v>
+        <v>0.002915419150690354</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002906295044748823</v>
+        <v>0.002792207679851006</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0107346813421194</v>
+        <v>0.01096695216989281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01041746904288215</v>
+        <v>0.010499685742549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.007806783489290036</v>
+        <v>0.007984918867795354</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003216698115042906</v>
+        <v>0.002853381915275961</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002971319216988547</v>
+        <v>0.003089124610627702</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002436746780149405</v>
+        <v>0.00244250881305837</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01080309159509729</v>
+        <v>0.01099706140844536</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009746199003409246</v>
+        <v>0.009691262834322565</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008009993596956087</v>
+        <v>0.008077033486563835</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003063283495267832</v>
+        <v>0.00306209518246812</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002993708419621269</v>
+        <v>0.003060597477822114</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002406662176057439</v>
+        <v>0.002439207021615178</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01052709317129607</v>
+        <v>0.01050174334242759</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009819429258474306</v>
+        <v>0.00996488625712014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00811030738647696</v>
+        <v>0.008154891742853731</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002957364146289607</v>
+        <v>0.002976913750239017</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002947109031960847</v>
+        <v>0.003071478098690641</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002507761711508775</v>
+        <v>0.002397951977365829</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01174100931640705</v>
+        <v>0.01176194377310564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01126574697202919</v>
+        <v>0.01147610404728983</v>
       </c>
       <c r="D31" t="n">
-        <v>0.009254910198609575</v>
+        <v>0.009248112364058245</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003165563186512324</v>
+        <v>0.003071955249712909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003142748580013919</v>
+        <v>0.003081456878819849</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00262973246931448</v>
+        <v>0.002598703285932538</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01195031334664428</v>
+        <v>0.0121860948754826</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009693374611650492</v>
+        <v>0.009913926281274384</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00907854018553254</v>
+        <v>0.009225831331146605</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003329068652553628</v>
+        <v>0.003078839655194</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002889007778272153</v>
+        <v>0.002765009726628829</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002625734823242264</v>
+        <v>0.002612391213255547</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01219981339877909</v>
+        <v>0.01248557040192088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01131592131463028</v>
+        <v>0.01145563527932075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009870791280707671</v>
+        <v>0.009814989885885981</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003168018846917443</v>
+        <v>0.003142850312787718</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003142071439679301</v>
+        <v>0.003040997788073586</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002690746870942457</v>
+        <v>0.002751287144680465</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01154390306071143</v>
+        <v>0.01187303499798779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01025515175568857</v>
+        <v>0.01032820940612596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009033333676752374</v>
+        <v>0.009182678658613339</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003170972497335026</v>
+        <v>0.003007460593997935</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002906805026098</v>
+        <v>0.002877679670443872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002508890244168306</v>
+        <v>0.002616698484913905</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01150950137124131</v>
+        <v>0.01168781347818252</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009775156148352625</v>
+        <v>0.009923251294877516</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008788192393555399</v>
+        <v>0.008701152923709897</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003238450927267879</v>
+        <v>0.003041093425701102</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002741226008642315</v>
+        <v>0.002883993257550059</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002514473225141791</v>
+        <v>0.002519875847725984</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008511101221693622</v>
+        <v>0.008527882078198523</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008440636384131315</v>
+        <v>0.008350030535167403</v>
       </c>
       <c r="D36" t="n">
-        <v>0.007030003772586811</v>
+        <v>0.007145942354040601</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002632358944905207</v>
+        <v>0.002769164610268448</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002567602907104913</v>
+        <v>0.002591472742514935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002250997682552273</v>
+        <v>0.002216857895460402</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0120399971944888</v>
+        <v>0.01222972139020928</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01009249403261948</v>
+        <v>0.01015332490620096</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008746394753990536</v>
+        <v>0.008722159379177761</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003334163415504221</v>
+        <v>0.00319285560078266</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002804547946152925</v>
+        <v>0.00299110110787616</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002537810340338982</v>
+        <v>0.002381064511371072</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01150398809718959</v>
+        <v>0.01185848227704444</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0101905907317229</v>
+        <v>0.010175506740956</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008601674739818406</v>
+        <v>0.008826796512271581</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003077326041456282</v>
+        <v>0.003215563730528668</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002971639175034784</v>
+        <v>0.002819155525210327</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002536053562604001</v>
+        <v>0.002434929029608461</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01252836216983391</v>
+        <v>0.01282703415224601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01060484037795563</v>
+        <v>0.01074744717966099</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00801768027962003</v>
+        <v>0.007860904683827065</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003364431689476407</v>
+        <v>0.003506221766413439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003102730512299702</v>
+        <v>0.003146653422256211</v>
       </c>
       <c r="G39" t="n">
-        <v>0.002428145821814065</v>
+        <v>0.002542787292199698</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01132427881488611</v>
+        <v>0.01144391311367996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009692571448591382</v>
+        <v>0.009973165874715634</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008802923819484536</v>
+        <v>0.008743282480744232</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003140000564180263</v>
+        <v>0.003098897101226433</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002764222958474896</v>
+        <v>0.003046597059941107</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002594724675139813</v>
+        <v>0.002611232443767395</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.009264546461509086</v>
+        <v>0.00952300885680115</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008335830667866832</v>
+        <v>0.008501509779019449</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007027259548100642</v>
+        <v>0.007172174397519334</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002851544809617888</v>
+        <v>0.002839948409296827</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002478276136949545</v>
+        <v>0.002576124216058987</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0022038138965526</v>
+        <v>0.002254561672454411</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +1472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.009490332605536738</v>
+        <v>0.009744518044865712</v>
       </c>
       <c r="C42" t="n">
-        <v>0.008350524837760687</v>
+        <v>0.008548198037349738</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00708421752226169</v>
+        <v>0.007245488510689717</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002662931640918617</v>
+        <v>0.00289958242915504</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002476133504751375</v>
+        <v>0.002468055710238917</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002236055768904818</v>
+        <v>0.002246268772043885</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01201281248911766</v>
+        <v>0.0118151050815078</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009603284016133291</v>
+        <v>0.009445120578452728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007057181832335705</v>
+        <v>0.007301634633880901</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003192603105151441</v>
+        <v>0.003268512980698043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002865068422970242</v>
+        <v>0.002769337283414194</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002282369911009636</v>
+        <v>0.002300158470100258</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007867983024062769</v>
+        <v>0.008014915789132708</v>
       </c>
       <c r="C44" t="n">
-        <v>0.006122505006174932</v>
+        <v>0.006237843883352334</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005882106172701265</v>
+        <v>0.005921970040106783</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002453944506490478</v>
+        <v>0.002505473148096079</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002132566168043349</v>
+        <v>0.002143784930070581</v>
       </c>
       <c r="G44" t="n">
-        <v>0.002095402532774624</v>
+        <v>0.001945435463550727</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.009819888913507099</v>
+        <v>0.009911944765589114</v>
       </c>
       <c r="C45" t="n">
-        <v>0.008760702863570145</v>
+        <v>0.008835521411371058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007280952112367383</v>
+        <v>0.007429606909251284</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002945853881100991</v>
+        <v>0.002924446867284663</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002631714077666749</v>
+        <v>0.002711916642396079</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002277401306638109</v>
+        <v>0.002363860484734262</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01130927847901272</v>
+        <v>0.01142656443117226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.009955370408546028</v>
+        <v>0.01025701023510915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008561996915379908</v>
+        <v>0.008608517818811331</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003222094008939199</v>
+        <v>0.003121196561212867</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002862462163531327</v>
+        <v>0.002756254209656815</v>
       </c>
       <c r="G46" t="n">
-        <v>0.002613197021909932</v>
+        <v>0.002442038363393908</v>
       </c>
     </row>
     <row r="47">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01087578895939236</v>
+        <v>0.01097327381115707</v>
       </c>
       <c r="C47" t="n">
-        <v>0.008284941642352325</v>
+        <v>0.008347050565576768</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007673427138449909</v>
+        <v>0.00786579898582593</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003119398358995058</v>
+        <v>0.00305489944290612</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002447991713804178</v>
+        <v>0.002455098999683317</v>
       </c>
       <c r="G47" t="n">
-        <v>0.002261736638003424</v>
+        <v>0.002352004503501081</v>
       </c>
     </row>
     <row r="48">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01062747951707738</v>
+        <v>0.01081699732502819</v>
       </c>
       <c r="C48" t="n">
-        <v>0.009296848106251665</v>
+        <v>0.009671330911046164</v>
       </c>
       <c r="D48" t="n">
-        <v>0.009024465196028723</v>
+        <v>0.009175723299966755</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002901387169711825</v>
+        <v>0.003039142863438091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002652207351745426</v>
+        <v>0.002867560604999841</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002468838689090783</v>
+        <v>0.002832849332956752</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01177575507797399</v>
+        <v>0.01175657112255589</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0116123386060247</v>
+        <v>0.0114321694249189</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0106464758924558</v>
+        <v>0.01088744980885567</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003115177763551131</v>
+        <v>0.003062455005527546</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00347747237291686</v>
+        <v>0.003169646691812633</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003083070926060544</v>
+        <v>0.003118138854195295</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01025575530120851</v>
+        <v>0.0104523100887728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.008082299393923712</v>
+        <v>0.008398066830669113</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00721759464833868</v>
+        <v>0.007379776883742814</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003100410329321186</v>
+        <v>0.002951693139776411</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002546780789271284</v>
+        <v>0.00247680089113452</v>
       </c>
       <c r="G50" t="n">
-        <v>0.002182313897970991</v>
+        <v>0.002214981184391645</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.009943736742712563</v>
+        <v>0.01009605558220126</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009327343564674415</v>
+        <v>0.009330868275015234</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00812841577652614</v>
+        <v>0.00835825079499844</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002757430492842894</v>
+        <v>0.003054541562873242</v>
       </c>
       <c r="F51" t="n">
-        <v>0.002854729733828061</v>
+        <v>0.002935433176634672</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002663881158407354</v>
+        <v>0.002636698582073749</v>
       </c>
     </row>
     <row r="52">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01086905465798691</v>
+        <v>0.01090535707095978</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00921679771474908</v>
+        <v>0.009318792351211153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008456387153583808</v>
+        <v>0.008515400730669561</v>
       </c>
       <c r="E52" t="n">
-        <v>0.003128015121118583</v>
+        <v>0.002964675452446098</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002818896407928265</v>
+        <v>0.002759626788044276</v>
       </c>
       <c r="G52" t="n">
-        <v>0.002495237054154941</v>
+        <v>0.002371621326586447</v>
       </c>
     </row>
     <row r="53">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01303846636977387</v>
+        <v>0.01315578817468515</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01107057024710686</v>
+        <v>0.01114031517704985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009724914015163847</v>
+        <v>0.009875106587855122</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003263727614043868</v>
+        <v>0.003334952168466142</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002901422979616641</v>
+        <v>0.002999767632609369</v>
       </c>
       <c r="G53" t="n">
-        <v>0.002884531468109613</v>
+        <v>0.002726648883119309</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01356499200010212</v>
+        <v>0.01373539487436162</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01142017893665873</v>
+        <v>0.01162405619214981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01038758518641593</v>
+        <v>0.01066095741956615</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003449744383175821</v>
+        <v>0.003325895181213298</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003206071175156062</v>
+        <v>0.003181792750979756</v>
       </c>
       <c r="G54" t="n">
-        <v>0.002828431221380191</v>
+        <v>0.002912314291067958</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01317423718516944</v>
+        <v>0.01342183289695845</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01116922356490588</v>
+        <v>0.01122910947072856</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01013552386333113</v>
+        <v>0.01013622753236595</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003257908538721476</v>
+        <v>0.003437292340064255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002803621311701505</v>
+        <v>0.003017435622322786</v>
       </c>
       <c r="G55" t="n">
-        <v>0.002697232898689477</v>
+        <v>0.002801858639614581</v>
       </c>
     </row>
     <row r="56">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01279971186309377</v>
+        <v>0.01289931192082613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01272866305694833</v>
+        <v>0.01294049452816454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01050626217797556</v>
+        <v>0.01072700887316634</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003355910546710984</v>
+        <v>0.003488074896456499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.003429683412318001</v>
+        <v>0.003836647706393639</v>
       </c>
       <c r="G56" t="n">
-        <v>0.002979151900144946</v>
+        <v>0.003018591081033768</v>
       </c>
     </row>
     <row r="57">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01335047841384572</v>
+        <v>0.01374553876248362</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0113049524557759</v>
+        <v>0.01142539040849668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01035177334855997</v>
+        <v>0.01050867095131278</v>
       </c>
       <c r="E57" t="n">
-        <v>0.003415172377620944</v>
+        <v>0.003543381217860435</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002992331593065527</v>
+        <v>0.003047848730901323</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002685818976086455</v>
+        <v>0.00279271827398202</v>
       </c>
     </row>
     <row r="58">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01753198794501295</v>
+        <v>0.01773390236865567</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0118726773343475</v>
+        <v>0.01196600341066256</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01249747564067392</v>
+        <v>0.01254032922273228</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004508061490112395</v>
+        <v>0.004318132960483674</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003178213385996488</v>
+        <v>0.003285989954174471</v>
       </c>
       <c r="G58" t="n">
-        <v>0.003678189572797733</v>
+        <v>0.003394383703080191</v>
       </c>
     </row>
     <row r="59">
@@ -1897,547 +1897,522 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01561268165196689</v>
+        <v>0.01580177518978304</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01388971186996323</v>
+        <v>0.01420678102533152</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01638268409741772</v>
+        <v>0.01641374288213207</v>
       </c>
       <c r="E59" t="n">
-        <v>0.003996182836643047</v>
+        <v>0.003990672106952573</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003692089679643244</v>
+        <v>0.003934254991499637</v>
       </c>
       <c r="G59" t="n">
-        <v>0.005071902000086857</v>
+        <v>0.005140604312680158</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0135208929027743</v>
+        <v>0.01407411759917008</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01075515484582268</v>
+        <v>0.01501779130260986</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01007963372798652</v>
+        <v>0.01213009826458573</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003423079942163522</v>
+        <v>0.003460111139635791</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002665165313096866</v>
+        <v>0.00383938206512843</v>
       </c>
       <c r="G60" t="n">
-        <v>0.002645536387215907</v>
+        <v>0.003256698400209811</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01403205576509138</v>
+        <v>0.01593864757641587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01481084785409981</v>
+        <v>0.01347871742347855</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01154829469434243</v>
+        <v>0.008278621829403296</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003545712607478412</v>
+        <v>0.00383595272982509</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003808819612656028</v>
+        <v>0.003614492953410695</v>
       </c>
       <c r="G61" t="n">
-        <v>0.003137314346199919</v>
+        <v>0.002314148671031989</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>BSNIP1vs2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01590280865559503</v>
+        <v>0.01240194022995959</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01285595796431225</v>
+        <v>0.01037150222639473</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00811035357086348</v>
+        <v>0.008971416292414653</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003694800780865144</v>
+        <v>0.003427008382658837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00343349495801262</v>
+        <v>0.002777102867060094</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002341995170340555</v>
+        <v>0.002712251446167214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BSNIP1vs2</t>
+          <t>Psychosis</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0121783099891881</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01036300624912966</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.008896954658319601</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003154662403383389</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.002787625696814607</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.002610987208037543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Psychosis</t>
+          <t>BACS_COMP_Z_within</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.02225933717714216</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.02868956566652451</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.0532418866146034</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.005987007417778698</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.009296228995025326</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.0192547384816372</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>BACS_COMP_Z_within</t>
+          <t>BACS_Verb_Mem_within_imputed</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02240222219087684</v>
+        <v>0.01619835095160314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02793152951965177</v>
+        <v>0.02572447297600604</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05344657398672528</v>
+        <v>0.03147771039380236</v>
       </c>
       <c r="E65" t="n">
-        <v>0.006296133495231065</v>
+        <v>0.004181933205884506</v>
       </c>
       <c r="F65" t="n">
-        <v>0.008882899124859787</v>
+        <v>0.007404294203444861</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02037351980506514</v>
+        <v>0.01077688575719127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>BACS_Verb_Mem_within_imputed</t>
+          <t>BACS_Dig_Seq_z_within_imputed</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01626195582483329</v>
+        <v>0.01906069902814845</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0252483583318641</v>
+        <v>0.01676917334863685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03140889849277597</v>
+        <v>0.02801567311877766</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004222438538423085</v>
+        <v>0.004906830569683684</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007786915377080542</v>
+        <v>0.004795268678094048</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01134423209751291</v>
+        <v>0.01009154804709981</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>BACS_Dig_Seq_z_within_imputed</t>
+          <t>BACS_Tok_Mot_z_within_imputed</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01894377590991108</v>
+        <v>0.01614417662891579</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01713568549740506</v>
+        <v>0.01213460260231881</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02799304422651359</v>
+        <v>0.01383059864325436</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004875304902581068</v>
+        <v>0.003729853160245941</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004750713820587241</v>
+        <v>0.003209126299965513</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01039911295772303</v>
+        <v>0.003877816944124288</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>BACS_Tok_Mot_z_within_imputed</t>
+          <t>BACS_Verb_Flu_z_within_imputed</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01554957698991354</v>
+        <v>0.01382218787759993</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01221157323166895</v>
+        <v>0.0208624838253133</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01362149880712035</v>
+        <v>0.01988389137127542</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003767436953739049</v>
+        <v>0.00354109899402463</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003253978093692968</v>
+        <v>0.006393903696140704</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00392519716938601</v>
+        <v>0.00739503634772192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>BACS_Verb_Flu_z_within_imputed</t>
+          <t>BACS_Sym_Cod_z_within_imputed</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01329797479651655</v>
+        <v>0.01984800752185134</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0206149972151978</v>
+        <v>0.02115987205162256</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01978134160396707</v>
+        <v>0.03667360079520089</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003495752708265125</v>
+        <v>0.005187386396449218</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006024515450009203</v>
+        <v>0.007092478663335266</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00724507299362643</v>
+        <v>0.0139219922580459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BACS_Sym_Cod_z_within_imputed</t>
+          <t>BACS_Tower_z_within_imputed</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01960535757649898</v>
+        <v>0.01960471037215577</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02123698350896518</v>
+        <v>0.01551760459474196</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03478097047367237</v>
+        <v>0.02145113404228399</v>
       </c>
       <c r="E70" t="n">
-        <v>0.005387888089631781</v>
+        <v>0.005009592776198645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.006806894857574074</v>
+        <v>0.004277944846300809</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01311279284431318</v>
+        <v>0.007408535654311928</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>BACS_Tower_z_within_imputed</t>
+          <t>ConsensusWRAT</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01922647765527189</v>
+        <v>0.01588329664060728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0155886920121138</v>
+        <v>0.01561232567870363</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02099873627355774</v>
+        <v>0.02104951837559189</v>
       </c>
       <c r="E71" t="n">
-        <v>0.00510969410994872</v>
+        <v>0.004062032110988766</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004447909998864047</v>
+        <v>0.004563953433109467</v>
       </c>
       <c r="G71" t="n">
-        <v>0.007128397925944691</v>
+        <v>0.007543337935172569</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>ConsensusWRAT</t>
+          <t>Pro_NoGap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01558279737692613</v>
+        <v>0.01282020237595078</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01530597774256065</v>
+        <v>0.01278026860047386</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02066786584262346</v>
+        <v>0.0116626260194107</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003967681113014529</v>
+        <v>0.003256675974224365</v>
       </c>
       <c r="F72" t="n">
-        <v>0.004625828785571004</v>
+        <v>0.003241642000853855</v>
       </c>
       <c r="G72" t="n">
-        <v>0.007756939259858314</v>
+        <v>0.003180132083900644</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Pro_NoGap_within_Impute_Age_Sex_adjusted</t>
+          <t>Pro_Gap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01266633191678762</v>
+        <v>0.01316508393320301</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01255662790460369</v>
+        <v>0.01259010911766135</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01149479632305606</v>
+        <v>0.01141643713924951</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003175984738489292</v>
+        <v>0.003297584086714093</v>
       </c>
       <c r="F73" t="n">
-        <v>0.003350574003995439</v>
+        <v>0.003220280637808138</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003228138138885648</v>
+        <v>0.002999903451078785</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Pro_Gap_within_Impute_Age_Sex_adjusted</t>
+          <t>Pro_Overlap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01298495610279337</v>
+        <v>0.01358854941068376</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01219666443025533</v>
+        <v>0.01302529278377501</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01122216350917953</v>
+        <v>0.01325006242881692</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003234586746768481</v>
+        <v>0.003467551687600073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003251137161405204</v>
+        <v>0.003221001743757872</v>
       </c>
       <c r="G74" t="n">
-        <v>0.002816604427646284</v>
+        <v>0.003681084986533296</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Pro_Overlap_within_Impute_Age_Sex_adjusted</t>
+          <t>Anti_Corr_Lat_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01329681755698462</v>
+        <v>0.01700965461544108</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01284253851563547</v>
+        <v>0.02231371869546689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01305818147838173</v>
+        <v>0.03424922876773161</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003465363585302036</v>
+        <v>0.00426552707199194</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003241216542651538</v>
+        <v>0.006243146443361275</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003456355513461153</v>
+        <v>0.01028518633384001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Anti_Corr_Lat_within_Impute_Age_Sex_adjusted</t>
+          <t>Anti_Error_Lat_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01689767038841721</v>
+        <v>0.01346730838516647</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02227259984597072</v>
+        <v>0.01135489584105445</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03355709689447</v>
+        <v>0.01080191248894658</v>
       </c>
       <c r="E76" t="n">
-        <v>0.004117821668430104</v>
+        <v>0.003488582495849141</v>
       </c>
       <c r="F76" t="n">
-        <v>0.006118431397168183</v>
+        <v>0.002911801250761421</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0102606418195624</v>
+        <v>0.002709084264144849</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Anti_Error_Lat_within_Impute_Age_Sex_adjusted</t>
+          <t>Anti_prop_error_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01314216436987042</v>
+        <v>0.01644842909775746</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01108430788273597</v>
+        <v>0.07597950997903111</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01057645931581131</v>
+        <v>0.07403811341929012</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003351396175602842</v>
+        <v>0.003949405742223142</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002831703716782663</v>
+        <v>0.01745882933847966</v>
       </c>
       <c r="G77" t="n">
-        <v>0.002661765348257001</v>
+        <v>0.02070937589875612</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Anti_prop_error_within_Impute_Age_Sex_adjusted</t>
+          <t>SSGoDiff_standwithin</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01652410245340057</v>
+        <v>0.01802817285821593</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07688416500643178</v>
+        <v>0.01704321587340032</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07474218758989627</v>
+        <v>0.02806936590390892</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004365460447787117</v>
+        <v>0.004474726973850676</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01796034918839863</v>
+        <v>0.004601571901994519</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01948692924657212</v>
+        <v>0.008285209343032948</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>SSGoDiff_standwithin</t>
+          <t>SSTProportionError_standwithin</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01782098762822127</v>
+        <v>0.01674801452480651</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01672963152481446</v>
+        <v>0.01971925390215727</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02770490965369256</v>
+        <v>0.02560027326832607</v>
       </c>
       <c r="E79" t="n">
-        <v>0.004496707362221177</v>
+        <v>0.004192330076593205</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0044559425016049</v>
+        <v>0.00525410477805902</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009026904891415005</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>SSTProportionError_standwithin</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.0165706577557377</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.01949379761845233</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.02550617447002692</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.004137528306140817</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.005265771337146945</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.00756056106702964</v>
+        <v>0.007078397963602187</v>
       </c>
     </row>
   </sheetData>
